--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2552,28 +2552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.51859792737586</v>
+        <v>89.90979915473189</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.64543616074288</v>
+        <v>123.018553743848</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.08980155174309</v>
+        <v>111.277835632192</v>
       </c>
       <c r="AD2" t="n">
-        <v>65518.59792737587</v>
+        <v>89909.79915473188</v>
       </c>
       <c r="AE2" t="n">
-        <v>89645.43616074287</v>
+        <v>123018.553743848</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.894390627633586e-06</v>
+        <v>7.205642268781744e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.899739583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>81089.80155174309</v>
+        <v>111277.835632192</v>
       </c>
     </row>
     <row r="3">
@@ -2658,28 +2658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.64522295512494</v>
+        <v>85.86583198188876</v>
       </c>
       <c r="AB3" t="n">
-        <v>84.34571364246821</v>
+        <v>117.4854194507265</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.2958771124036</v>
+        <v>106.2727759102015</v>
       </c>
       <c r="AD3" t="n">
-        <v>61645.22295512493</v>
+        <v>85865.83198188875</v>
       </c>
       <c r="AE3" t="n">
-        <v>84345.71364246821</v>
+        <v>117485.4194507265</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.526221918536547e-06</v>
+        <v>8.374695579501058e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>76295.8771124036</v>
+        <v>106272.7759102015</v>
       </c>
     </row>
     <row r="4">
@@ -2764,28 +2764,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>60.42173688549718</v>
+        <v>72.61742700772622</v>
       </c>
       <c r="AB4" t="n">
-        <v>82.67168602560844</v>
+        <v>99.35836728670937</v>
       </c>
       <c r="AC4" t="n">
-        <v>74.78161634178387</v>
+        <v>89.8757441632349</v>
       </c>
       <c r="AD4" t="n">
-        <v>60421.73688549717</v>
+        <v>72617.42700772622</v>
       </c>
       <c r="AE4" t="n">
-        <v>82671.68602560843</v>
+        <v>99358.36728670937</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.750907278403254e-06</v>
+        <v>8.790422321123729e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.196614583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>74781.61634178387</v>
+        <v>89875.74416323489</v>
       </c>
     </row>
     <row r="5">
@@ -2870,28 +2870,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>59.77486908291869</v>
+        <v>71.97055920514774</v>
       </c>
       <c r="AB5" t="n">
-        <v>81.78661296032763</v>
+        <v>98.47329422142859</v>
       </c>
       <c r="AC5" t="n">
-        <v>73.98101340764535</v>
+        <v>89.07514122909636</v>
       </c>
       <c r="AD5" t="n">
-        <v>59774.86908291869</v>
+        <v>71970.55920514774</v>
       </c>
       <c r="AE5" t="n">
-        <v>81786.61296032763</v>
+        <v>98473.29422142859</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.862806469676992e-06</v>
+        <v>8.997465121803046e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.125</v>
       </c>
       <c r="AH5" t="n">
-        <v>73981.01340764535</v>
+        <v>89075.14122909636</v>
       </c>
     </row>
     <row r="6">
@@ -2976,28 +2976,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>59.28883388816706</v>
+        <v>71.48452401039613</v>
       </c>
       <c r="AB6" t="n">
-        <v>81.12159816450934</v>
+        <v>97.80827942561028</v>
       </c>
       <c r="AC6" t="n">
-        <v>73.3794666905856</v>
+        <v>88.47359451203663</v>
       </c>
       <c r="AD6" t="n">
-        <v>59288.83388816706</v>
+        <v>71484.52401039613</v>
       </c>
       <c r="AE6" t="n">
-        <v>81121.59816450934</v>
+        <v>97808.27942561028</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.924941565040088e-06</v>
+        <v>9.112431316089305e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.0859375</v>
       </c>
       <c r="AH6" t="n">
-        <v>73379.4666905856</v>
+        <v>88473.59451203662</v>
       </c>
     </row>
     <row r="7">
@@ -3082,28 +3082,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>58.79601523235178</v>
+        <v>70.99170535458083</v>
       </c>
       <c r="AB7" t="n">
-        <v>80.44730193799856</v>
+        <v>97.1339831990995</v>
       </c>
       <c r="AC7" t="n">
-        <v>72.76952434955211</v>
+        <v>87.86365217100312</v>
       </c>
       <c r="AD7" t="n">
-        <v>58796.01523235178</v>
+        <v>70991.70535458083</v>
       </c>
       <c r="AE7" t="n">
-        <v>80447.30193799856</v>
+        <v>97133.9831990995</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.989270762192867e-06</v>
+        <v>9.231457173133985e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.046875</v>
       </c>
       <c r="AH7" t="n">
-        <v>72769.52434955211</v>
+        <v>87863.65217100312</v>
       </c>
     </row>
     <row r="8">
@@ -3188,28 +3188,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>58.72348263091132</v>
+        <v>70.91917275314037</v>
       </c>
       <c r="AB8" t="n">
-        <v>80.34805963279523</v>
+        <v>97.03474089389617</v>
       </c>
       <c r="AC8" t="n">
-        <v>72.67975359066989</v>
+        <v>87.77388141212091</v>
       </c>
       <c r="AD8" t="n">
-        <v>58723.48263091132</v>
+        <v>70919.17275314037</v>
       </c>
       <c r="AE8" t="n">
-        <v>80348.05963279522</v>
+        <v>97034.74089389617</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.986913269844379e-06</v>
+        <v>9.227095195063769e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.046875</v>
       </c>
       <c r="AH8" t="n">
-        <v>72679.75359066989</v>
+        <v>87773.88141212091</v>
       </c>
     </row>
   </sheetData>
@@ -3485,28 +3485,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.34628678428997</v>
+        <v>83.87371104972411</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.56845186851322</v>
+        <v>114.7597117051674</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.68823470775175</v>
+        <v>103.8072058863228</v>
       </c>
       <c r="AD2" t="n">
-        <v>60346.28678428996</v>
+        <v>83873.71104972411</v>
       </c>
       <c r="AE2" t="n">
-        <v>82568.45186851322</v>
+        <v>114759.7117051674</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.457799428047912e-06</v>
+        <v>8.497253692737645e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.528645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>74688.23470775175</v>
+        <v>103807.2058863228</v>
       </c>
     </row>
     <row r="3">
@@ -3591,28 +3591,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.51834086492588</v>
+        <v>69.28214250619399</v>
       </c>
       <c r="AB3" t="n">
-        <v>78.69913150147239</v>
+        <v>94.79488388934786</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.18819684591482</v>
+        <v>85.74779321642693</v>
       </c>
       <c r="AD3" t="n">
-        <v>57518.34086492588</v>
+        <v>69282.142506194</v>
       </c>
       <c r="AE3" t="n">
-        <v>78699.1315014724</v>
+        <v>94794.88388934785</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.070129605421727e-06</v>
+        <v>9.664449513197164e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.098958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>71188.19684591482</v>
+        <v>85747.79321642693</v>
       </c>
     </row>
     <row r="4">
@@ -3697,28 +3697,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>56.78503015409625</v>
+        <v>68.54883179536435</v>
       </c>
       <c r="AB4" t="n">
-        <v>77.69578343553049</v>
+        <v>93.79153582340594</v>
       </c>
       <c r="AC4" t="n">
-        <v>70.28060691117823</v>
+        <v>84.84020328169034</v>
       </c>
       <c r="AD4" t="n">
-        <v>56785.03015409625</v>
+        <v>68548.83179536436</v>
       </c>
       <c r="AE4" t="n">
-        <v>77695.78343553048</v>
+        <v>93791.53582340594</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.223049161134034e-06</v>
+        <v>9.95593778682665e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.0078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>70280.60691117823</v>
+        <v>84840.20328169034</v>
       </c>
     </row>
     <row r="5">
@@ -3803,28 +3803,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>44.27756924444934</v>
+        <v>67.71965265531188</v>
       </c>
       <c r="AB5" t="n">
-        <v>60.58252362872823</v>
+        <v>92.65701634318476</v>
       </c>
       <c r="AC5" t="n">
-        <v>54.80061260172076</v>
+        <v>83.81396074835303</v>
       </c>
       <c r="AD5" t="n">
-        <v>44277.56924444934</v>
+        <v>67719.65265531187</v>
       </c>
       <c r="AE5" t="n">
-        <v>60582.52362872823</v>
+        <v>92657.01634318476</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.343129525978073e-06</v>
+        <v>1.018482949451012e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.942708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>54800.61260172076</v>
+        <v>83813.96074835303</v>
       </c>
     </row>
     <row r="6">
@@ -3909,28 +3909,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>43.78303545152377</v>
+        <v>67.2251188623863</v>
       </c>
       <c r="AB6" t="n">
-        <v>59.90588067595665</v>
+        <v>91.98037339041316</v>
       </c>
       <c r="AC6" t="n">
-        <v>54.18854750268712</v>
+        <v>83.2018956493194</v>
       </c>
       <c r="AD6" t="n">
-        <v>43783.03545152376</v>
+        <v>67225.1188623863</v>
       </c>
       <c r="AE6" t="n">
-        <v>59905.88067595664</v>
+        <v>91980.37339041317</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.407938635015153e-06</v>
+        <v>1.030836565848005e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.903645833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>54188.54750268712</v>
+        <v>83201.8956493194</v>
       </c>
     </row>
   </sheetData>
@@ -4206,28 +4206,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>38.20387969847817</v>
+        <v>59.04542382629089</v>
       </c>
       <c r="AB2" t="n">
-        <v>52.27223363952187</v>
+        <v>80.78855377935646</v>
       </c>
       <c r="AC2" t="n">
-        <v>47.2834450256051</v>
+        <v>73.07820759412088</v>
       </c>
       <c r="AD2" t="n">
-        <v>38203.87969847817</v>
+        <v>59045.42382629088</v>
       </c>
       <c r="AE2" t="n">
-        <v>52272.23363952187</v>
+        <v>80788.55377935646</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.305554641792664e-06</v>
+        <v>1.342918120486642e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.779947916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>47283.4450256051</v>
+        <v>73078.20759412089</v>
       </c>
     </row>
     <row r="3">
@@ -4312,28 +4312,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>37.59363226762785</v>
+        <v>58.43517639544046</v>
       </c>
       <c r="AB3" t="n">
-        <v>51.43726618241993</v>
+        <v>79.95358632225076</v>
       </c>
       <c r="AC3" t="n">
-        <v>46.5281656907223</v>
+        <v>72.32292825923692</v>
       </c>
       <c r="AD3" t="n">
-        <v>37593.63226762784</v>
+        <v>58435.17639544047</v>
       </c>
       <c r="AE3" t="n">
-        <v>51437.26618241993</v>
+        <v>79953.58632225076</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.523504140766966e-06</v>
+        <v>1.389335659965828e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.688802083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>46528.16569072229</v>
+        <v>72322.92825923691</v>
       </c>
     </row>
   </sheetData>
@@ -4609,28 +4609,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.86384271503806</v>
+        <v>63.83572826978929</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.330641790833</v>
+        <v>87.34285965226458</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.42750685502538</v>
+        <v>79.00697971354681</v>
       </c>
       <c r="AD2" t="n">
-        <v>52863.84271503806</v>
+        <v>63835.7282697893</v>
       </c>
       <c r="AE2" t="n">
-        <v>72330.641790833</v>
+        <v>87342.85965226458</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.53968531332705e-06</v>
+        <v>1.124747643066565e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.02734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>65427.50685502539</v>
+        <v>79006.97971354681</v>
       </c>
     </row>
     <row r="3">
@@ -4715,28 +4715,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>40.12142814151746</v>
+        <v>61.97967937934939</v>
       </c>
       <c r="AB3" t="n">
-        <v>54.89590801554235</v>
+        <v>84.80333167726793</v>
       </c>
       <c r="AC3" t="n">
-        <v>49.6567196015361</v>
+        <v>76.70982072423315</v>
       </c>
       <c r="AD3" t="n">
-        <v>40121.42814151746</v>
+        <v>61979.67937934939</v>
       </c>
       <c r="AE3" t="n">
-        <v>54895.90801554234</v>
+        <v>84803.33167726794</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.060678085067086e-06</v>
+        <v>1.230527188099492e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.766927083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>49656.7196015361</v>
+        <v>76709.82072423316</v>
       </c>
     </row>
     <row r="4">
@@ -4821,28 +4821,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>39.95272319418015</v>
+        <v>61.81097443201205</v>
       </c>
       <c r="AB4" t="n">
-        <v>54.66507846385955</v>
+        <v>84.57250212558411</v>
       </c>
       <c r="AC4" t="n">
-        <v>49.44792009829392</v>
+        <v>76.50102122099065</v>
       </c>
       <c r="AD4" t="n">
-        <v>39952.72319418015</v>
+        <v>61810.97443201205</v>
       </c>
       <c r="AE4" t="n">
-        <v>54665.07846385955</v>
+        <v>84572.50212558411</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.097306361766205e-06</v>
+        <v>1.237963994624912e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.75390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>49447.92009829392</v>
+        <v>76501.02122099065</v>
       </c>
     </row>
   </sheetData>
@@ -5118,28 +5118,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>35.78923040033344</v>
+        <v>55.796866139751</v>
       </c>
       <c r="AB2" t="n">
-        <v>48.96840394300749</v>
+        <v>76.34373383638443</v>
       </c>
       <c r="AC2" t="n">
-        <v>44.29492819836212</v>
+        <v>69.05759502816073</v>
       </c>
       <c r="AD2" t="n">
-        <v>35789.23040033344</v>
+        <v>55796.866139751</v>
       </c>
       <c r="AE2" t="n">
-        <v>48968.40394300749</v>
+        <v>76343.73383638443</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.79625157963186e-06</v>
+        <v>1.513392479651727e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.682291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>44294.92819836212</v>
+        <v>69057.59502816074</v>
       </c>
     </row>
   </sheetData>
@@ -5415,28 +5415,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.59988597151973</v>
+        <v>85.35434662670309</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.28368158137306</v>
+        <v>116.7855826226205</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.2397653041568</v>
+        <v>105.6397305267426</v>
       </c>
       <c r="AD2" t="n">
-        <v>61599.88597151973</v>
+        <v>85354.34662670309</v>
       </c>
       <c r="AE2" t="n">
-        <v>84283.68158137306</v>
+        <v>116785.5826226205</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.308827987973477e-06</v>
+        <v>8.146975414005451e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.61328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>76239.76530415681</v>
+        <v>105639.7305267426</v>
       </c>
     </row>
     <row r="3">
@@ -5521,28 +5521,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.67927348629559</v>
+        <v>70.5565933224383</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.2875707307622</v>
+        <v>96.53864372093432</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.62503766455016</v>
+        <v>87.32513105706963</v>
       </c>
       <c r="AD3" t="n">
-        <v>58679.27348629558</v>
+        <v>70556.5933224383</v>
       </c>
       <c r="AE3" t="n">
-        <v>80287.57073076219</v>
+        <v>96538.64372093431</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.888856542426579e-06</v>
+        <v>9.243672331529195e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.18359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>72625.03766455017</v>
+        <v>87325.13105706962</v>
       </c>
     </row>
     <row r="4">
@@ -5627,28 +5627,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>57.70652947659647</v>
+        <v>69.58384931273919</v>
       </c>
       <c r="AB4" t="n">
-        <v>78.95661946225556</v>
+        <v>95.20769245242768</v>
       </c>
       <c r="AC4" t="n">
-        <v>71.42111051710756</v>
+        <v>86.121203909627</v>
       </c>
       <c r="AD4" t="n">
-        <v>57706.52947659646</v>
+        <v>69583.84931273918</v>
       </c>
       <c r="AE4" t="n">
-        <v>78956.61946225556</v>
+        <v>95207.69245242768</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.107692349616383e-06</v>
+        <v>9.657439125157426e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>71421.11051710756</v>
+        <v>86121.203909627</v>
       </c>
     </row>
     <row r="5">
@@ -5733,28 +5733,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>44.99327105727047</v>
+        <v>68.66239085788222</v>
       </c>
       <c r="AB5" t="n">
-        <v>61.56177842356518</v>
+        <v>93.94691234261505</v>
       </c>
       <c r="AC5" t="n">
-        <v>55.68640869333151</v>
+        <v>84.98075088397849</v>
       </c>
       <c r="AD5" t="n">
-        <v>44993.27105727047</v>
+        <v>68662.39085788222</v>
       </c>
       <c r="AE5" t="n">
-        <v>61561.77842356518</v>
+        <v>93946.91234261505</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.23083385467912e-06</v>
+        <v>9.890270609029581e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.975260416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>55686.40869333151</v>
+        <v>84980.75088397849</v>
       </c>
     </row>
     <row r="6">
@@ -5839,28 +5839,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>44.47904048663592</v>
+        <v>68.14816028724766</v>
       </c>
       <c r="AB6" t="n">
-        <v>60.85818547057167</v>
+        <v>93.24331938962153</v>
       </c>
       <c r="AC6" t="n">
-        <v>55.04996566427258</v>
+        <v>84.34430785491955</v>
       </c>
       <c r="AD6" t="n">
-        <v>44479.04048663592</v>
+        <v>68148.16028724767</v>
       </c>
       <c r="AE6" t="n">
-        <v>60858.18547057167</v>
+        <v>93243.31938962154</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.294151464938738e-06</v>
+        <v>1.000998924609249e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.942708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>55049.96566427257</v>
+        <v>84344.30785491955</v>
       </c>
     </row>
   </sheetData>
@@ -6136,28 +6136,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>34.69109324267713</v>
+        <v>54.20493035770509</v>
       </c>
       <c r="AB2" t="n">
-        <v>47.46588423751719</v>
+        <v>74.16557706814028</v>
       </c>
       <c r="AC2" t="n">
-        <v>42.93580686475969</v>
+        <v>67.0873184848149</v>
       </c>
       <c r="AD2" t="n">
-        <v>34691.09324267713</v>
+        <v>54204.93035770509</v>
       </c>
       <c r="AE2" t="n">
-        <v>47465.8842375172</v>
+        <v>74165.57706814028</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.958453577669729e-06</v>
+        <v>1.595271929094988e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.682291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>42935.80686475969</v>
+        <v>67087.3184848149</v>
       </c>
     </row>
   </sheetData>
@@ -6433,28 +6433,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.52815414138399</v>
+        <v>67.92353431659186</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.34431434236787</v>
+        <v>92.93597622677201</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.96268153497699</v>
+        <v>84.06629709217344</v>
       </c>
       <c r="AD2" t="n">
-        <v>56528.15414138399</v>
+        <v>67923.53431659186</v>
       </c>
       <c r="AE2" t="n">
-        <v>77344.31434236787</v>
+        <v>92935.97622677201</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.972632864345128e-06</v>
+        <v>9.746291692657559e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.255208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>69962.68153497699</v>
+        <v>84066.29709217344</v>
       </c>
     </row>
     <row r="3">
@@ -6539,28 +6539,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>43.09365911649543</v>
+        <v>65.7988995952375</v>
       </c>
       <c r="AB3" t="n">
-        <v>58.96264556123391</v>
+        <v>90.02895726874777</v>
       </c>
       <c r="AC3" t="n">
-        <v>53.33533342347443</v>
+        <v>81.43671994347538</v>
       </c>
       <c r="AD3" t="n">
-        <v>43093.65911649543</v>
+        <v>65798.8995952375</v>
       </c>
       <c r="AE3" t="n">
-        <v>58962.64556123391</v>
+        <v>90028.95726874778</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.486519857640604e-06</v>
+        <v>1.075350309763227e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.94921875</v>
       </c>
       <c r="AH3" t="n">
-        <v>53335.33342347443</v>
+        <v>81436.71994347539</v>
       </c>
     </row>
     <row r="4">
@@ -6645,28 +6645,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>42.28784017783417</v>
+        <v>64.99308065657623</v>
       </c>
       <c r="AB4" t="n">
-        <v>57.86008853913555</v>
+        <v>88.92640024664942</v>
       </c>
       <c r="AC4" t="n">
-        <v>52.33800289611631</v>
+        <v>80.43938941611727</v>
       </c>
       <c r="AD4" t="n">
-        <v>42287.84017783417</v>
+        <v>64993.08065657623</v>
       </c>
       <c r="AE4" t="n">
-        <v>57860.08853913556</v>
+        <v>88926.40024664943</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.665967324848207e-06</v>
+        <v>1.110521765340698e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.858072916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>52338.0028961163</v>
+        <v>80439.38941611726</v>
       </c>
     </row>
     <row r="5">
@@ -6751,28 +6751,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>42.05018112220744</v>
+        <v>64.75542160095296</v>
       </c>
       <c r="AB5" t="n">
-        <v>57.53491293428572</v>
+        <v>88.60122464196827</v>
       </c>
       <c r="AC5" t="n">
-        <v>52.04386159470913</v>
+        <v>80.14524811475995</v>
       </c>
       <c r="AD5" t="n">
-        <v>42050.18112220744</v>
+        <v>64755.42160095296</v>
       </c>
       <c r="AE5" t="n">
-        <v>57534.91293428572</v>
+        <v>88601.22464196828</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.717689393935219e-06</v>
+        <v>1.120659219402194e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.83203125</v>
       </c>
       <c r="AH5" t="n">
-        <v>52043.86159470913</v>
+        <v>80145.24811475995</v>
       </c>
     </row>
   </sheetData>
@@ -7048,28 +7048,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.06411898282489</v>
+        <v>82.18528131424152</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.81413331729836</v>
+        <v>112.4495276528184</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.10134585686272</v>
+        <v>101.7175025575657</v>
       </c>
       <c r="AD2" t="n">
-        <v>59064.11898282489</v>
+        <v>82185.28131424153</v>
       </c>
       <c r="AE2" t="n">
-        <v>80814.13331729836</v>
+        <v>112449.5276528184</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.620752962579564e-06</v>
+        <v>8.884335958790669e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.4375</v>
       </c>
       <c r="AH2" t="n">
-        <v>73101.34585686272</v>
+        <v>101717.5025575656</v>
       </c>
     </row>
     <row r="3">
@@ -7154,28 +7154,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.67246459945272</v>
+        <v>68.31843137400818</v>
       </c>
       <c r="AB3" t="n">
-        <v>77.5417662776255</v>
+        <v>93.47629180235735</v>
       </c>
       <c r="AC3" t="n">
-        <v>70.14128893465922</v>
+        <v>84.55504570756277</v>
       </c>
       <c r="AD3" t="n">
-        <v>56672.46459945272</v>
+        <v>68318.43137400819</v>
       </c>
       <c r="AE3" t="n">
-        <v>77541.7662776255</v>
+        <v>93476.29180235736</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.172889589217619e-06</v>
+        <v>9.945930752091934e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.06640625</v>
       </c>
       <c r="AH3" t="n">
-        <v>70141.28893465921</v>
+        <v>84555.04570756276</v>
       </c>
     </row>
     <row r="4">
@@ -7260,28 +7260,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>43.89775779431835</v>
+        <v>67.10417147175558</v>
       </c>
       <c r="AB4" t="n">
-        <v>60.06284884656067</v>
+        <v>91.81488783473</v>
       </c>
       <c r="AC4" t="n">
-        <v>54.33053485139497</v>
+        <v>83.05220380281014</v>
       </c>
       <c r="AD4" t="n">
-        <v>43897.75779431835</v>
+        <v>67104.17147175557</v>
       </c>
       <c r="AE4" t="n">
-        <v>60062.84884656067</v>
+        <v>91814.88783473001</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.405824894685513e-06</v>
+        <v>1.039379618164413e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.936197916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>54330.53485139497</v>
+        <v>83052.20380281014</v>
       </c>
     </row>
     <row r="5">
@@ -7366,28 +7366,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>43.44939070897358</v>
+        <v>66.65580438641081</v>
       </c>
       <c r="AB5" t="n">
-        <v>59.4493732198325</v>
+        <v>91.20141220800184</v>
       </c>
       <c r="AC5" t="n">
-        <v>53.77560847746309</v>
+        <v>82.49727742887826</v>
       </c>
       <c r="AD5" t="n">
-        <v>43449.39070897358</v>
+        <v>66655.8043864108</v>
       </c>
       <c r="AE5" t="n">
-        <v>59449.3732198325</v>
+        <v>91201.41220800184</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.461011743950824e-06</v>
+        <v>1.049990410677036e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.903645833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>53775.60847746309</v>
+        <v>82497.27742887827</v>
       </c>
     </row>
     <row r="6">
@@ -7472,28 +7472,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>43.39332716724662</v>
+        <v>66.59974084468385</v>
       </c>
       <c r="AB6" t="n">
-        <v>59.37266460869282</v>
+        <v>91.12470359686215</v>
       </c>
       <c r="AC6" t="n">
-        <v>53.70622082850934</v>
+        <v>82.42788977992451</v>
       </c>
       <c r="AD6" t="n">
-        <v>43393.32716724662</v>
+        <v>66599.74084468385</v>
       </c>
       <c r="AE6" t="n">
-        <v>59372.66460869282</v>
+        <v>91124.70359686215</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.45964669820928e-06</v>
+        <v>1.049727952911706e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.903645833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>53706.22082850934</v>
+        <v>82427.88977992452</v>
       </c>
     </row>
   </sheetData>
@@ -7769,28 +7769,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.21566492593615</v>
+        <v>88.4013758046749</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.86270574682676</v>
+        <v>120.9546623693596</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.47721242645271</v>
+        <v>109.4109191537943</v>
       </c>
       <c r="AD2" t="n">
-        <v>64215.66492593616</v>
+        <v>88401.3758046749</v>
       </c>
       <c r="AE2" t="n">
-        <v>87862.70574682676</v>
+        <v>120954.6623693595</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.023234730523209e-06</v>
+        <v>7.494981154996567e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.80859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>79477.21242645271</v>
+        <v>109410.9191537943</v>
       </c>
     </row>
     <row r="3">
@@ -7875,28 +7875,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.51040128225306</v>
+        <v>72.60334623017349</v>
       </c>
       <c r="AB3" t="n">
-        <v>82.79300056484689</v>
+        <v>99.33910134566166</v>
       </c>
       <c r="AC3" t="n">
-        <v>74.89135279166349</v>
+        <v>89.85831693656085</v>
       </c>
       <c r="AD3" t="n">
-        <v>60510.40128225306</v>
+        <v>72603.34623017348</v>
       </c>
       <c r="AE3" t="n">
-        <v>82793.00056484689</v>
+        <v>99339.10134566166</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.677033608233221e-06</v>
+        <v>8.712958875863277e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.274739583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>74891.35279166349</v>
+        <v>89858.31693656085</v>
       </c>
     </row>
     <row r="4">
@@ -7981,28 +7981,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>59.57190693783402</v>
+        <v>71.66485188575446</v>
       </c>
       <c r="AB4" t="n">
-        <v>81.50891119936504</v>
+        <v>98.05501198017981</v>
       </c>
       <c r="AC4" t="n">
-        <v>73.72981511299207</v>
+        <v>88.69677925788942</v>
       </c>
       <c r="AD4" t="n">
-        <v>59571.90693783402</v>
+        <v>71664.85188575445</v>
       </c>
       <c r="AE4" t="n">
-        <v>81508.91119936504</v>
+        <v>98055.01198017981</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.844506632975552e-06</v>
+        <v>9.024948418728154e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.1640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>73729.81511299207</v>
+        <v>88696.77925788942</v>
       </c>
     </row>
     <row r="5">
@@ -8087,28 +8087,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>58.94171086282708</v>
+        <v>71.03465581074749</v>
       </c>
       <c r="AB5" t="n">
-        <v>80.64664912725233</v>
+        <v>97.1927499080671</v>
       </c>
       <c r="AC5" t="n">
-        <v>72.9498461228491</v>
+        <v>87.91681026774644</v>
       </c>
       <c r="AD5" t="n">
-        <v>58941.71086282708</v>
+        <v>71034.6558107475</v>
       </c>
       <c r="AE5" t="n">
-        <v>80646.64912725233</v>
+        <v>97192.7499080671</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.961111902801765e-06</v>
+        <v>9.242175192321627e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.0859375</v>
       </c>
       <c r="AH5" t="n">
-        <v>72949.84612284909</v>
+        <v>87916.81026774645</v>
       </c>
     </row>
     <row r="6">
@@ -8193,28 +8193,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>58.32566859196466</v>
+        <v>70.41861353988509</v>
       </c>
       <c r="AB6" t="n">
-        <v>79.80375291439192</v>
+        <v>96.34985369520669</v>
       </c>
       <c r="AC6" t="n">
-        <v>72.18739474153155</v>
+        <v>87.15435888642891</v>
       </c>
       <c r="AD6" t="n">
-        <v>58325.66859196466</v>
+        <v>70418.61353988509</v>
       </c>
       <c r="AE6" t="n">
-        <v>79803.75291439192</v>
+        <v>96349.85369520669</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.028261103787241e-06</v>
+        <v>9.367269060730783e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.046875</v>
       </c>
       <c r="AH6" t="n">
-        <v>72187.39474153155</v>
+        <v>87154.3588864289</v>
       </c>
     </row>
     <row r="7">
@@ -8299,28 +8299,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>58.02784599456208</v>
+        <v>70.1207909424825</v>
       </c>
       <c r="AB7" t="n">
-        <v>79.39625889762023</v>
+        <v>95.942359678435</v>
       </c>
       <c r="AC7" t="n">
-        <v>71.81879138179896</v>
+        <v>86.78575552669632</v>
       </c>
       <c r="AD7" t="n">
-        <v>58027.84599456208</v>
+        <v>70120.7909424825</v>
       </c>
       <c r="AE7" t="n">
-        <v>79396.25889762022</v>
+        <v>95942.35967843499</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.087457806548087e-06</v>
+        <v>9.477548028116007e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.0078125</v>
       </c>
       <c r="AH7" t="n">
-        <v>71818.79138179896</v>
+        <v>86785.75552669632</v>
       </c>
     </row>
   </sheetData>
@@ -8596,28 +8596,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.1632061434588</v>
+        <v>65.28377914111874</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.10848815746611</v>
+        <v>89.32414673791232</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.03567805965065</v>
+        <v>80.79917554049483</v>
       </c>
       <c r="AD2" t="n">
-        <v>54163.2061434588</v>
+        <v>65283.77914111874</v>
       </c>
       <c r="AE2" t="n">
-        <v>74108.48815746611</v>
+        <v>89324.14673791232</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.325674487305212e-06</v>
+        <v>1.067530042320447e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.111979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>67035.67805965064</v>
+        <v>80799.17554049483</v>
       </c>
     </row>
     <row r="3">
@@ -8702,28 +8702,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>41.18945101199744</v>
+        <v>63.34507713564693</v>
       </c>
       <c r="AB3" t="n">
-        <v>56.35722402476961</v>
+        <v>86.67152912453101</v>
       </c>
       <c r="AC3" t="n">
-        <v>50.97856966181698</v>
+        <v>78.3997200291616</v>
       </c>
       <c r="AD3" t="n">
-        <v>41189.45101199744</v>
+        <v>63345.07713564693</v>
       </c>
       <c r="AE3" t="n">
-        <v>56357.22402476962</v>
+        <v>86671.52912453101</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.833936096176403e-06</v>
+        <v>1.16941094738167e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.838541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>50978.56966181697</v>
+        <v>78399.7200291616</v>
       </c>
     </row>
     <row r="4">
@@ -8808,28 +8808,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>40.6925845919919</v>
+        <v>62.84821071564131</v>
       </c>
       <c r="AB4" t="n">
-        <v>55.67738946872191</v>
+        <v>85.99169456848026</v>
       </c>
       <c r="AC4" t="n">
-        <v>50.36361756164265</v>
+        <v>77.78476792898633</v>
       </c>
       <c r="AD4" t="n">
-        <v>40692.58459199189</v>
+        <v>62848.21071564131</v>
       </c>
       <c r="AE4" t="n">
-        <v>55677.38946872191</v>
+        <v>85991.69456848025</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.948300048933729e-06</v>
+        <v>1.192335171462203e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.786458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>50363.61756164265</v>
+        <v>77784.76792898633</v>
       </c>
     </row>
   </sheetData>
@@ -9105,28 +9105,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>39.33340181601424</v>
+        <v>60.53855897518946</v>
       </c>
       <c r="AB2" t="n">
-        <v>53.81769563172618</v>
+        <v>82.83152716255221</v>
       </c>
       <c r="AC2" t="n">
-        <v>48.68141029434756</v>
+        <v>74.92620246495622</v>
       </c>
       <c r="AD2" t="n">
-        <v>39333.40181601424</v>
+        <v>60538.55897518946</v>
       </c>
       <c r="AE2" t="n">
-        <v>53817.69563172618</v>
+        <v>82831.5271625522</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.068914121261125e-06</v>
+        <v>1.269654787892548e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.845052083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>48681.41029434756</v>
+        <v>74926.20246495622</v>
       </c>
     </row>
     <row r="3">
@@ -9211,28 +9211,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>38.34895956162283</v>
+        <v>59.55411672079789</v>
       </c>
       <c r="AB3" t="n">
-        <v>52.47073830874727</v>
+        <v>81.48456983956724</v>
       </c>
       <c r="AC3" t="n">
-        <v>47.46300468780327</v>
+        <v>73.70779685841003</v>
       </c>
       <c r="AD3" t="n">
-        <v>38348.95956162283</v>
+        <v>59554.11672079789</v>
       </c>
       <c r="AE3" t="n">
-        <v>52470.73830874727</v>
+        <v>81484.56983956724</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.394590850147148e-06</v>
+        <v>1.337788396289926e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.701822916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>47463.00468780327</v>
+        <v>73707.79685841003</v>
       </c>
     </row>
   </sheetData>
@@ -16169,28 +16169,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>36.90628246016393</v>
+        <v>57.35171201138268</v>
       </c>
       <c r="AB2" t="n">
-        <v>50.49680385211899</v>
+        <v>78.47114255290849</v>
       </c>
       <c r="AC2" t="n">
-        <v>45.67745976527532</v>
+        <v>70.9819668426173</v>
       </c>
       <c r="AD2" t="n">
-        <v>36906.28246016393</v>
+        <v>57351.71201138268</v>
       </c>
       <c r="AE2" t="n">
-        <v>50496.803852119</v>
+        <v>78471.1425529085</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.585342485146091e-06</v>
+        <v>1.43155847578181e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.708333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>45677.45976527531</v>
+        <v>70981.9668426173</v>
       </c>
     </row>
     <row r="3">
@@ -16275,28 +16275,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>36.70811873634266</v>
+        <v>57.15354828756137</v>
       </c>
       <c r="AB3" t="n">
-        <v>50.22566750282154</v>
+        <v>78.20000620360985</v>
       </c>
       <c r="AC3" t="n">
-        <v>45.43220028861175</v>
+        <v>70.73670736595336</v>
       </c>
       <c r="AD3" t="n">
-        <v>36708.11873634266</v>
+        <v>57153.54828756137</v>
       </c>
       <c r="AE3" t="n">
-        <v>50225.66750282155</v>
+        <v>78200.00620360984</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.680243212349399e-06</v>
+        <v>1.452188525121262e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.67578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>45432.20028861176</v>
+        <v>70736.70736595336</v>
       </c>
     </row>
   </sheetData>
@@ -16572,28 +16572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>33.46574838785943</v>
+        <v>52.40516221537082</v>
       </c>
       <c r="AB2" t="n">
-        <v>45.78931334876396</v>
+        <v>71.7030548956331</v>
       </c>
       <c r="AC2" t="n">
-        <v>41.41924554854207</v>
+        <v>64.85981597227943</v>
       </c>
       <c r="AD2" t="n">
-        <v>33465.74838785943</v>
+        <v>52405.16221537082</v>
       </c>
       <c r="AE2" t="n">
-        <v>45789.31334876396</v>
+        <v>71703.0548956331</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.057247965109145e-06</v>
+        <v>1.678585457328039e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.71484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>41419.24554854207</v>
+        <v>64859.81597227944</v>
       </c>
     </row>
   </sheetData>
@@ -16869,28 +16869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.79938549830414</v>
+        <v>80.67530590001878</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.08366916767451</v>
+        <v>110.3835126756661</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.53603477695673</v>
+        <v>99.84866515016185</v>
       </c>
       <c r="AD2" t="n">
-        <v>57799.38549830414</v>
+        <v>80675.30590001878</v>
       </c>
       <c r="AE2" t="n">
-        <v>79083.66916767451</v>
+        <v>110383.5126756661</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.789977156401063e-06</v>
+        <v>9.295325224204299e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.346354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>71536.03477695673</v>
+        <v>99848.66515016185</v>
       </c>
     </row>
     <row r="3">
@@ -16975,28 +16975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>43.93100903932618</v>
+        <v>66.89218078706141</v>
       </c>
       <c r="AB3" t="n">
-        <v>60.10834466692177</v>
+        <v>91.52483282756262</v>
       </c>
       <c r="AC3" t="n">
-        <v>54.3716886145146</v>
+        <v>82.78983123843196</v>
       </c>
       <c r="AD3" t="n">
-        <v>43931.00903932618</v>
+        <v>66892.1807870614</v>
       </c>
       <c r="AE3" t="n">
-        <v>60108.34466692177</v>
+        <v>91524.83282756263</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.353608150056825e-06</v>
+        <v>1.03890952405123e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.994791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>54371.68861451461</v>
+        <v>82789.83123843196</v>
       </c>
     </row>
     <row r="4">
@@ -17081,28 +17081,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>43.05578378487979</v>
+        <v>66.01695553261501</v>
       </c>
       <c r="AB4" t="n">
-        <v>58.91082286157572</v>
+        <v>90.32731102221658</v>
       </c>
       <c r="AC4" t="n">
-        <v>53.28845660953799</v>
+        <v>81.70659923345534</v>
       </c>
       <c r="AD4" t="n">
-        <v>43055.78378487979</v>
+        <v>66016.95553261501</v>
       </c>
       <c r="AE4" t="n">
-        <v>58910.82286157572</v>
+        <v>90327.31102221657</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.545539102557057e-06</v>
+        <v>1.07615522618776e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.890625</v>
       </c>
       <c r="AH4" t="n">
-        <v>53288.45660953799</v>
+        <v>81706.59923345533</v>
       </c>
     </row>
     <row r="5">
@@ -17187,28 +17187,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>42.74685222390746</v>
+        <v>65.70802397164267</v>
       </c>
       <c r="AB5" t="n">
-        <v>58.48812907075501</v>
+        <v>89.90461723139585</v>
       </c>
       <c r="AC5" t="n">
-        <v>52.90610412085861</v>
+        <v>81.32424674477596</v>
       </c>
       <c r="AD5" t="n">
-        <v>42746.85222390746</v>
+        <v>65708.02397164267</v>
       </c>
       <c r="AE5" t="n">
-        <v>58488.12907075501</v>
+        <v>89904.61723139585</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.584683563110594e-06</v>
+        <v>1.083751514848237e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.87109375</v>
       </c>
       <c r="AH5" t="n">
-        <v>52906.10412085861</v>
+        <v>81324.24674477596</v>
       </c>
     </row>
   </sheetData>
@@ -17484,28 +17484,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.98795507355539</v>
+        <v>86.961616481804</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.18289896406414</v>
+        <v>118.9847201461101</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.9577240454128</v>
+        <v>107.6289854514999</v>
       </c>
       <c r="AD2" t="n">
-        <v>62987.95507355539</v>
+        <v>86961.616481804</v>
       </c>
       <c r="AE2" t="n">
-        <v>86182.89896406414</v>
+        <v>118984.7201461101</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.155580069481992e-06</v>
+        <v>7.797498150378449e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.717447916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>77957.7240454128</v>
+        <v>107628.9854514999</v>
       </c>
     </row>
     <row r="3">
@@ -17590,28 +17590,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.61548350751579</v>
+        <v>71.60240372019115</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.56853458446616</v>
+        <v>97.96956764503751</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.78374812590111</v>
+        <v>88.6194896101712</v>
       </c>
       <c r="AD3" t="n">
-        <v>59615.48350751579</v>
+        <v>71602.40372019114</v>
       </c>
       <c r="AE3" t="n">
-        <v>81568.53458446616</v>
+        <v>97969.56764503752</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.780607400915627e-06</v>
+        <v>8.970294578145814e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.229166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>73783.74812590111</v>
+        <v>88619.48961017121</v>
       </c>
     </row>
     <row r="4">
@@ -17696,28 +17696,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>58.47435323623968</v>
+        <v>70.46127344891504</v>
       </c>
       <c r="AB4" t="n">
-        <v>80.00718980419245</v>
+        <v>96.4082228647638</v>
       </c>
       <c r="AC4" t="n">
-        <v>72.37141590009506</v>
+        <v>87.20715738436516</v>
       </c>
       <c r="AD4" t="n">
-        <v>58474.35323623968</v>
+        <v>70461.27344891503</v>
       </c>
       <c r="AE4" t="n">
-        <v>80007.18980419244</v>
+        <v>96408.2228647638</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.012365238947023e-06</v>
+        <v>9.405163184494382e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.079427083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>72371.41590009506</v>
+        <v>87207.15738436516</v>
       </c>
     </row>
     <row r="5">
@@ -17802,28 +17802,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>58.03774565351605</v>
+        <v>70.0246658661914</v>
       </c>
       <c r="AB5" t="n">
-        <v>79.40980404774315</v>
+        <v>95.8108371083145</v>
       </c>
       <c r="AC5" t="n">
-        <v>71.83104380180492</v>
+        <v>86.66678528607501</v>
       </c>
       <c r="AD5" t="n">
-        <v>58037.74565351605</v>
+        <v>70024.6658661914</v>
       </c>
       <c r="AE5" t="n">
-        <v>79409.80404774315</v>
+        <v>95810.8371083145</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.065269321126368e-06</v>
+        <v>9.504431993191006e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.046875</v>
       </c>
       <c r="AH5" t="n">
-        <v>71831.04380180492</v>
+        <v>86666.78528607501</v>
       </c>
     </row>
     <row r="6">
@@ -17908,28 +17908,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>45.1494675876403</v>
+        <v>69.03778814131731</v>
       </c>
       <c r="AB6" t="n">
-        <v>61.77549340732166</v>
+        <v>94.46054746716996</v>
       </c>
       <c r="AC6" t="n">
-        <v>55.87972701898921</v>
+        <v>85.44536539313748</v>
       </c>
       <c r="AD6" t="n">
-        <v>45149.46758764031</v>
+        <v>69037.7881413173</v>
       </c>
       <c r="AE6" t="n">
-        <v>61775.49340732166</v>
+        <v>94460.54746716996</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.191527404246758e-06</v>
+        <v>9.741341679237386e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.975260416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>55879.72701898922</v>
+        <v>85445.36539313747</v>
       </c>
     </row>
     <row r="7">
@@ -18014,28 +18014,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>45.24012367498633</v>
+        <v>69.12844422866333</v>
       </c>
       <c r="AB7" t="n">
-        <v>61.89953306549274</v>
+        <v>94.58458712534103</v>
       </c>
       <c r="AC7" t="n">
-        <v>55.99192850627523</v>
+        <v>85.55756688042349</v>
       </c>
       <c r="AD7" t="n">
-        <v>45240.12367498633</v>
+        <v>69128.44422866333</v>
       </c>
       <c r="AE7" t="n">
-        <v>61899.53306549274</v>
+        <v>94584.58712534103</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.181444787687914e-06</v>
+        <v>9.722422735875921e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.981770833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>55991.92850627523</v>
+        <v>85557.56688042349</v>
       </c>
     </row>
   </sheetData>
@@ -18311,28 +18311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>32.01703068620505</v>
+        <v>50.25207575810186</v>
       </c>
       <c r="AB2" t="n">
-        <v>43.8071138764558</v>
+        <v>68.75710701732858</v>
       </c>
       <c r="AC2" t="n">
-        <v>39.62622441183066</v>
+        <v>62.19502522481555</v>
       </c>
       <c r="AD2" t="n">
-        <v>32017.03068620505</v>
+        <v>50252.07575810186</v>
       </c>
       <c r="AE2" t="n">
-        <v>43807.1138764558</v>
+        <v>68757.10701732858</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.939491899476044e-06</v>
+        <v>1.735514260579934e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.858072916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>39626.22441183066</v>
+        <v>62195.02522481554</v>
       </c>
     </row>
   </sheetData>
@@ -18608,28 +18608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.64715806223085</v>
+        <v>62.18971115634802</v>
       </c>
       <c r="AB2" t="n">
-        <v>55.61523488662611</v>
+        <v>85.09070642050537</v>
       </c>
       <c r="AC2" t="n">
-        <v>50.30739492562738</v>
+        <v>76.96976882530907</v>
       </c>
       <c r="AD2" t="n">
-        <v>40647.15806223085</v>
+        <v>62189.71115634802</v>
       </c>
       <c r="AE2" t="n">
-        <v>55615.2348866261</v>
+        <v>85090.70642050538</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.768478564273895e-06</v>
+        <v>1.187893248592423e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.94921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>50307.39492562738</v>
+        <v>76969.76882530907</v>
       </c>
     </row>
     <row r="3">
@@ -18714,28 +18714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>39.27069628765724</v>
+        <v>60.8132493817742</v>
       </c>
       <c r="AB3" t="n">
-        <v>53.73189916145589</v>
+        <v>83.2073706953267</v>
       </c>
       <c r="AC3" t="n">
-        <v>48.60380211878351</v>
+        <v>75.26617601846256</v>
       </c>
       <c r="AD3" t="n">
-        <v>39270.69628765724</v>
+        <v>60813.2493817742</v>
       </c>
       <c r="AE3" t="n">
-        <v>53731.89916145588</v>
+        <v>83207.3706953267</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.211896158935918e-06</v>
+        <v>1.279205500365072e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.740885416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>48603.8021187835</v>
+        <v>75266.17601846256</v>
       </c>
     </row>
     <row r="4">
@@ -18820,28 +18820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>39.27069628765724</v>
+        <v>60.8132493817742</v>
       </c>
       <c r="AB4" t="n">
-        <v>53.73189916145589</v>
+        <v>83.2073706953267</v>
       </c>
       <c r="AC4" t="n">
-        <v>48.60380211878351</v>
+        <v>75.26617601846256</v>
       </c>
       <c r="AD4" t="n">
-        <v>39270.69628765724</v>
+        <v>60813.2493817742</v>
       </c>
       <c r="AE4" t="n">
-        <v>53731.89916145588</v>
+        <v>83207.3706953267</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.211896158935918e-06</v>
+        <v>1.279205500365072e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.740885416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>48603.8021187835</v>
+        <v>75266.17601846256</v>
       </c>
     </row>
   </sheetData>
@@ -19117,28 +19117,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.37856013049055</v>
+        <v>66.639956967815</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.7713891001559</v>
+        <v>91.17972907074032</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.53987407026678</v>
+        <v>82.47766369980447</v>
       </c>
       <c r="AD2" t="n">
-        <v>55378.56013049055</v>
+        <v>66639.956967815</v>
       </c>
       <c r="AE2" t="n">
-        <v>75771.38910015589</v>
+        <v>91179.72907074032</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.137583457196417e-06</v>
+        <v>1.017849871835583e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.190104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>68539.87407026677</v>
+        <v>82477.66369980447</v>
       </c>
     </row>
     <row r="3">
@@ -19223,28 +19223,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>42.09371287973448</v>
+        <v>64.53098668271312</v>
       </c>
       <c r="AB3" t="n">
-        <v>57.59447500541954</v>
+        <v>88.29414288546292</v>
       </c>
       <c r="AC3" t="n">
-        <v>52.09773914537</v>
+        <v>79.86747381010341</v>
       </c>
       <c r="AD3" t="n">
-        <v>42093.71287973448</v>
+        <v>64530.98668271313</v>
       </c>
       <c r="AE3" t="n">
-        <v>57594.47500541954</v>
+        <v>88294.14288546292</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.682378812148152e-06</v>
+        <v>1.125783861975929e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.884114583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>52097.73914537</v>
+        <v>79867.4738101034</v>
       </c>
     </row>
     <row r="4">
@@ -19329,28 +19329,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>41.44563038302898</v>
+        <v>63.88290418600753</v>
       </c>
       <c r="AB4" t="n">
-        <v>56.70773994204949</v>
+        <v>87.40740782208889</v>
       </c>
       <c r="AC4" t="n">
-        <v>51.29563283190487</v>
+        <v>79.06536749663702</v>
       </c>
       <c r="AD4" t="n">
-        <v>41445.63038302898</v>
+        <v>63882.90418600753</v>
       </c>
       <c r="AE4" t="n">
-        <v>56707.73994204949</v>
+        <v>87407.40782208889</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.798824196923124e-06</v>
+        <v>1.148853836596591e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.825520833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>51295.63283190487</v>
+        <v>79065.36749663702</v>
       </c>
     </row>
     <row r="5">
@@ -19435,28 +19435,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>41.28953111232111</v>
+        <v>63.72680491529963</v>
       </c>
       <c r="AB5" t="n">
-        <v>56.49415803325422</v>
+        <v>87.19382591329264</v>
       </c>
       <c r="AC5" t="n">
-        <v>51.10243488072029</v>
+        <v>78.87216954545214</v>
       </c>
       <c r="AD5" t="n">
-        <v>41289.53111232111</v>
+        <v>63726.80491529963</v>
       </c>
       <c r="AE5" t="n">
-        <v>56494.15803325421</v>
+        <v>87193.82591329265</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.856204175897355e-06</v>
+        <v>1.160221866864408e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.799479166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>51102.43488072029</v>
+        <v>78872.16954545214</v>
       </c>
     </row>
   </sheetData>
